--- a/Data/timeline.xlsx
+++ b/Data/timeline.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="-840" yWindow="-460" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,11 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="19">
-  <si>
-    <t>Instruments</t>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="17">
   <si>
     <t>Flute</t>
     <phoneticPr fontId="1"/>
@@ -74,10 +70,6 @@
   </si>
   <si>
     <t>Contrabass</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Measure</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -153,18 +145,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -493,127 +489,124 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="B1" t="s">
-        <v>14</v>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+      <c r="J1">
+        <v>9</v>
+      </c>
+      <c r="K1">
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-      <c r="E2">
-        <v>4</v>
-      </c>
-      <c r="F2">
-        <v>5</v>
-      </c>
-      <c r="G2">
-        <v>6</v>
-      </c>
-      <c r="H2">
-        <v>7</v>
-      </c>
-      <c r="I2">
-        <v>8</v>
-      </c>
-      <c r="J2">
-        <v>9</v>
-      </c>
-      <c r="K2">
-        <v>10</v>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
@@ -629,28 +622,46 @@
       <c r="A9" t="s">
         <v>7</v>
       </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -658,46 +669,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
@@ -708,28 +701,23 @@
       <c r="A14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" t="s">
-        <v>16</v>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
